--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Số lô</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Số đề cương</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
   </si>
 </sst>
 </file>
@@ -499,11 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -521,12 +524,13 @@
     <col min="11" max="11" width="15.33203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" style="9" customWidth="1"/>
     <col min="13" max="13" width="20.5546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="68" style="9" customWidth="1"/>
+    <col min="14" max="14" width="36.44140625" style="9" customWidth="1"/>
     <col min="15" max="15" width="13.5546875" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="9"/>
+    <col min="16" max="16" width="26.44140625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -572,8 +576,11 @@
       <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="K2" s="11"/>
